--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value652.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value652.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.476759572703588</v>
+        <v>1.205933928489685</v>
       </c>
       <c r="B1">
-        <v>2.261372953022613</v>
+        <v>2.326450347900391</v>
       </c>
       <c r="C1">
-        <v>2.633509577139545</v>
+        <v>3.344620943069458</v>
       </c>
       <c r="D1">
-        <v>3.018436657893054</v>
+        <v>3.438175916671753</v>
       </c>
       <c r="E1">
-        <v>2.419505650760581</v>
+        <v>1.133975863456726</v>
       </c>
     </row>
   </sheetData>
